--- a/src/Assets/file/DocReact.xlsx
+++ b/src/Assets/file/DocReact.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ReactNative\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E5C245B-79A6-4398-8AB1-23DF7338848B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBB3F8EF-D034-47FA-B5C4-D92A59E95A11}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{86E2502D-26FA-47DB-89B3-814482DCCE17}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
   <si>
     <t>một số khái niệm react</t>
   </si>
@@ -97,6 +97,15 @@
   </si>
   <si>
     <t>4 cách để css</t>
+  </si>
+  <si>
+    <t xml:space="preserve">history </t>
+  </si>
+  <si>
+    <t>Cơ bản về history trong React Router</t>
+  </si>
+  <si>
+    <t>https://viblo.asia/p/co-ban-ve-history-trong-react-router-vyDZOzwPKwj</t>
   </si>
 </sst>
 </file>
@@ -483,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B553B005-6F35-458E-9FCE-7B0D2FA82C0A}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -494,7 +503,7 @@
     <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="79.140625" customWidth="1"/>
-    <col min="4" max="4" width="34.5703125" customWidth="1"/>
+    <col min="4" max="4" width="54.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -592,15 +601,29 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D9" t="s">
         <v>23</v>
       </c>
     </row>
@@ -612,9 +635,10 @@
     <hyperlink ref="C4" r:id="rId4" xr:uid="{D7D42CCC-4355-4CD1-9742-FAFF1C358F09}"/>
     <hyperlink ref="C5" r:id="rId5" xr:uid="{F4D10B3E-4833-4105-B159-5A7884625001}"/>
     <hyperlink ref="C7" r:id="rId6" xr:uid="{210FDD35-5611-4FFE-BFC1-798FA165B885}"/>
-    <hyperlink ref="C8" r:id="rId7" xr:uid="{F1314E10-394D-4373-9FBA-D9581BDBA582}"/>
+    <hyperlink ref="C9" r:id="rId7" xr:uid="{F1314E10-394D-4373-9FBA-D9581BDBA582}"/>
+    <hyperlink ref="C8" r:id="rId8" xr:uid="{B5E76526-4830-4104-B9FF-240D554FFD5B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>